--- a/1 teste mesa.xlsx
+++ b/1 teste mesa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\backup\Desktop\codigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noite\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA3F479-511D-49FD-A59A-018088DB755B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71186FF5-3E15-4F11-9AB6-4951115BD6FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="1020" windowWidth="12084" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="1020" windowWidth="12090" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>y</t>
   </si>
@@ -50,7 +39,10 @@
     <t>days</t>
   </si>
   <si>
-    <t>-</t>
+    <t>yToD</t>
+  </si>
+  <si>
+    <t>yToM</t>
   </si>
 </sst>
 </file>
@@ -368,15 +360,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,34 +379,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>8030</v>
-      </c>
-      <c r="B3">
-        <v>240</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D4">
-        <v>8294</v>
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>9125</v>
+      </c>
+      <c r="E2">
+        <v>180</v>
+      </c>
+      <c r="F2">
+        <v>9320</v>
       </c>
     </row>
   </sheetData>
